--- a/Actividades Areas/Actividades area compresores - Santiago.xlsx
+++ b/Actividades Areas/Actividades area compresores - Santiago.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\pruebas\Proyecto Planificacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmedina\Documents\GitHub\Repositorio-Git\MD-PlanificacionProduccion\Actividades Areas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">tarea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">encargado </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
   <si>
     <t xml:space="preserve">ayudante </t>
   </si>
   <si>
-    <t>Marco sandoval/Aldo Alvarez</t>
-  </si>
-  <si>
-    <t>Renato martinez/Manuel Nuñez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluacion de unidad compresora </t>
   </si>
   <si>
@@ -98,24 +86,41 @@
     <t xml:space="preserve">asistencia tecnica en terreno </t>
   </si>
   <si>
-    <t>Manuel nuñez</t>
-  </si>
-  <si>
-    <t>Marco sandoval/Aldo Alvarez/Renato martinez/Jorge Díaz</t>
-  </si>
-  <si>
-    <t>Marco sandoval/Aldo Alvarez/Jorge Díaz</t>
-  </si>
-  <si>
-    <t>Renato martinez/Manuel Nuñez/Jorge Díaz</t>
+    <t>Mecanico</t>
+  </si>
+  <si>
+    <t>Marco Sandoval</t>
+  </si>
+  <si>
+    <t>Aldo Alvarez</t>
+  </si>
+  <si>
+    <t>Renato Martinez</t>
+  </si>
+  <si>
+    <t>Manuel Nuñez</t>
+  </si>
+  <si>
+    <t>Jorge Díaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,240 +440,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:G23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
